--- a/medicine/Médecine vétérinaire/Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro/Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro.xlsx
+++ b/medicine/Médecine vétérinaire/Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro/Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27agriculture_et_de_m%C3%A9decine_v%C3%A9t%C3%A9rinaire_d%27Obihiro</t>
+          <t>Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Université d'agriculture et de médecine vétérinaire d'Obihiro (帯広畜産大学, Obihiro Chikusan Daigaku?, couramment abrégée en Obichiku, 帯畜) est une université nationale japonaise, située à Obihiro dans l'ile de Hokkaido.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27agriculture_et_de_m%C3%A9decine_v%C3%A9t%C3%A9rinaire_d%27Obihiro</t>
+          <t>Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,87 @@
           <t>Composantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'université est structurée en faculté de 1er cycle (学部, gakubu?), qui a la charge des étudiants de 1er cycle universitaire, et en faculté de cycles supérieurs (研究科, kenkyūka?), qui a la charge des étudiants de 2e et 3e cycle universitaire[1].
-Facultés de 1er cycle
-L'université compte 1 facultés de 1er cycle (学部, gakubu?).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est structurée en faculté de 1er cycle (学部, gakubu?), qui a la charge des étudiants de 1er cycle universitaire, et en faculté de cycles supérieurs (研究科, kenkyūka?), qui a la charge des étudiants de 2e et 3e cycle universitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27agriculture_et_de_m%C3%A9decine_v%C3%A9t%C3%A9rinaire_d%27Obihiro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Composantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Facultés de 1er cycle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'université compte 1 facultés de 1er cycle (学部, gakubu?).
 Faculté d'élevage d'animaux
 Cours de médecine vétérinaire
-Cours d'agriculture
-Facultés de cycles supérieur
-L'université compte 3 facultés de cycles supérieurs (研究科, kenkyūka?).
+Cours d'agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_d'agriculture_et_de_médecine_vétérinaire_d'Obihiro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27agriculture_et_de_m%C3%A9decine_v%C3%A9t%C3%A9rinaire_d%27Obihiro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Facultés de cycles supérieur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'université compte 3 facultés de cycles supérieurs (研究科, kenkyūka?).
 Faculté d'agriculture et de médecine vétérinaire
 Faculté de sciences vétérinaire, commune avec l'Université de Gifu
 Faculté d'agriculture, commune avec l'Université d'Iwate</t>
